--- a/pygame-t/sr.xlsx
+++ b/pygame-t/sr.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,582 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pygame-t/sr.xlsx
+++ b/pygame-t/sr.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,577 +437,2945 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>img_42</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01964354515075684</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.164566040039062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.106173753738403</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.07487670080917</v>
+      </c>
+      <c r="G2" t="n">
+        <v>96.09791067597791</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8853614950746896</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34.24021729917507</v>
+      </c>
+      <c r="J2" t="n">
+        <v>73.48181683326487</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9064373591493067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.84760255955136</v>
+      </c>
+      <c r="M2" t="n">
+        <v>80.4343135241225</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8932635727506067</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>img_14</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04154467582702637</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.68703269958496</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.145676136016846</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.10006482810641</v>
+      </c>
+      <c r="G3" t="n">
+        <v>95.54217699825948</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9151954857051082</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34.68968068819164</v>
+      </c>
+      <c r="J3" t="n">
+        <v>66.25727138840541</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.935011284082725</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35.06367702662448</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60.79024769045387</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9244474557745476</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>img_38</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02536249160766602</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.76826119422913</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.266441583633423</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.11596934919167</v>
+      </c>
+      <c r="G4" t="n">
+        <v>75.61442964827856</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9182098557932514</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35.53645297850296</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.52005907453204</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9364239986015085</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35.83764491853068</v>
+      </c>
+      <c r="M4" t="n">
+        <v>50.86711699433539</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9330033613482001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>img_48</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02019929885864258</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.66025614738464</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.914117813110352</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.0257002268289</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77.20254068270484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.953834528226808</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35.98112946522807</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49.21400046981442</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9681785875378578</v>
+      </c>
+      <c r="L5" t="n">
+        <v>37.07877151888511</v>
+      </c>
+      <c r="M5" t="n">
+        <v>38.22297300409475</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9655365933423711</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>img_3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01699638366699219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.903380870819092</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.674635648727417</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33.06828243715894</v>
+      </c>
+      <c r="G6" t="n">
+        <v>96.24393516530699</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9184051772238094</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34.47002748987069</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69.69455775010734</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9472059471144418</v>
+      </c>
+      <c r="L6" t="n">
+        <v>35.81011007776512</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51.1906457230094</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.936611037935179</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>img_8</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01419353485107422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.07047748565674</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.461380243301392</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.58013875761381</v>
+      </c>
+      <c r="G7" t="n">
+        <v>107.6930656062157</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9157729727771389</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33.57123635501572</v>
+      </c>
+      <c r="J7" t="n">
+        <v>85.71917451486205</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9422086341663983</v>
+      </c>
+      <c r="L7" t="n">
+        <v>35.21883313347828</v>
+      </c>
+      <c r="M7" t="n">
+        <v>58.65679131868065</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9264934584444647</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>img_63</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01223039627075195</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.52913761138916</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.177303791046143</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.68104497091056</v>
+      </c>
+      <c r="G8" t="n">
+        <v>105.2197143631926</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8877098253798451</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33.1697671743892</v>
+      </c>
+      <c r="J8" t="n">
+        <v>94.0210069601374</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8878066115701193</v>
+      </c>
+      <c r="L8" t="n">
+        <v>30.58214558049019</v>
+      </c>
+      <c r="M8" t="n">
+        <v>170.6031546596764</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8272627978142378</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>img_53</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03960847854614258</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.56120133399963</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.096072435379028</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31.66889113213308</v>
+      </c>
+      <c r="G9" t="n">
+        <v>132.834994580329</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8731198812512891</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33.19966616905015</v>
+      </c>
+      <c r="J9" t="n">
+        <v>93.37594255148687</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.893766240231186</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32.34528068885616</v>
+      </c>
+      <c r="M9" t="n">
+        <v>113.6772468071068</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8695892369209934</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>img_2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01023030281066895</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.607390165328979</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.1330246925354</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31.05006503894601</v>
+      </c>
+      <c r="G10" t="n">
+        <v>153.1775474525475</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8802845862993097</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.26449972002182</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115.8114885114885</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9024602370803757</v>
+      </c>
+      <c r="L10" t="n">
+        <v>32.33119894237848</v>
+      </c>
+      <c r="M10" t="n">
+        <v>114.0464368964369</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8726207221262178</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>img_59</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01883697509765625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.22620034217834</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.978580951690674</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32.63127136066762</v>
+      </c>
+      <c r="G11" t="n">
+        <v>106.4325529542921</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.891333986912486</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33.57591281307943</v>
+      </c>
+      <c r="J11" t="n">
+        <v>85.62692227680786</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9178324585736864</v>
+      </c>
+      <c r="L11" t="n">
+        <v>33.32185560645987</v>
+      </c>
+      <c r="M11" t="n">
+        <v>90.78540909891024</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8942699721128166</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>img_24</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01376581192016602</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.953316450119019</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.006663084030151</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31.55194020087479</v>
+      </c>
+      <c r="G12" t="n">
+        <v>136.4607002381398</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8747580592687064</v>
+      </c>
+      <c r="I12" t="n">
+        <v>32.71700927103534</v>
+      </c>
+      <c r="J12" t="n">
+        <v>104.3519787012014</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9048121782573147</v>
+      </c>
+      <c r="L12" t="n">
+        <v>32.86741158412117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>100.799982607765</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8995312965067459</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>img_17</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02733492851257324</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.34072160720825</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.516646862030029</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32.70432050953548</v>
+      </c>
+      <c r="G13" t="n">
+        <v>104.6573092118944</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8834305643885396</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34.11311206400987</v>
+      </c>
+      <c r="J13" t="n">
+        <v>75.66419382576588</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8994960125789732</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33.86881432968029</v>
+      </c>
+      <c r="M13" t="n">
+        <v>80.04241484154147</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8797130648836232</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>img_49</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01706218719482422</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.47383856773376</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.242337226867676</v>
+      </c>
+      <c r="F14" t="n">
+        <v>35.95486746426931</v>
+      </c>
+      <c r="G14" t="n">
+        <v>49.51250156739812</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9652174422542665</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36.616916669385</v>
+      </c>
+      <c r="J14" t="n">
+        <v>42.51184451410658</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9750646460171049</v>
+      </c>
+      <c r="L14" t="n">
+        <v>38.11159668698069</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30.13297053291536</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9780302541920545</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>img_45</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01857805252075195</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.8845419883728</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.392862796783447</v>
+      </c>
+      <c r="F15" t="n">
+        <v>33.09400981414437</v>
+      </c>
+      <c r="G15" t="n">
+        <v>95.6754765706512</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9069178903701109</v>
+      </c>
+      <c r="I15" t="n">
+        <v>34.19505654915216</v>
+      </c>
+      <c r="J15" t="n">
+        <v>74.2499149752996</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9339013692729926</v>
+      </c>
+      <c r="L15" t="n">
+        <v>34.52775028784445</v>
+      </c>
+      <c r="M15" t="n">
+        <v>68.77436462050161</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.929160538681849</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>img_37</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02275800704956055</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.89797639846802</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.67059588432312</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32.11374250242633</v>
+      </c>
+      <c r="G16" t="n">
+        <v>119.9022589753933</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8596657393023227</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32.41536847554892</v>
+      </c>
+      <c r="J16" t="n">
+        <v>111.8574122630093</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8757156342129134</v>
+      </c>
+      <c r="L16" t="n">
+        <v>30.45255534764036</v>
+      </c>
+      <c r="M16" t="n">
+        <v>175.7705375151271</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8488927807391176</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>img_5</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01377749443054199</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.627671480178833</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.60823392868042</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31.42436927544255</v>
+      </c>
+      <c r="G17" t="n">
+        <v>140.5285897653242</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8912850373702611</v>
+      </c>
+      <c r="I17" t="n">
+        <v>33.22830877914024</v>
+      </c>
+      <c r="J17" t="n">
+        <v>92.76213541288254</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9202058739817716</v>
+      </c>
+      <c r="L17" t="n">
+        <v>33.76994333854292</v>
+      </c>
+      <c r="M17" t="n">
+        <v>81.8855521380769</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9141472310324898</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>img_57</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02284145355224609</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.02034401893616</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.265779256820679</v>
+      </c>
+      <c r="F18" t="n">
+        <v>32.00859718294028</v>
+      </c>
+      <c r="G18" t="n">
+        <v>122.8405910219303</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8794304011324448</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32.91418795267572</v>
+      </c>
+      <c r="J18" t="n">
+        <v>99.72012639977451</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9053843641760254</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32.19641620493144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>117.6413487701497</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8792935099039126</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>img_60</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02023053169250488</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.12164282798767</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.504773855209351</v>
+      </c>
+      <c r="F19" t="n">
+        <v>32.47549149911477</v>
+      </c>
+      <c r="G19" t="n">
+        <v>110.3195459401709</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8825796666767847</v>
+      </c>
+      <c r="I19" t="n">
+        <v>33.42518793187385</v>
+      </c>
+      <c r="J19" t="n">
+        <v>88.65083333333334</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9080870956661903</v>
+      </c>
+      <c r="L19" t="n">
+        <v>33.62656030276525</v>
+      </c>
+      <c r="M19" t="n">
+        <v>84.63413995726496</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8941185478698217</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>img_27</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01758766174316406</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.67670941352844</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.729277610778809</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32.99773937712893</v>
+      </c>
+      <c r="G20" t="n">
+        <v>97.82000436725035</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8970348967064866</v>
+      </c>
+      <c r="I20" t="n">
+        <v>33.98884680793518</v>
+      </c>
+      <c r="J20" t="n">
+        <v>77.86045454813713</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9231316544010567</v>
+      </c>
+      <c r="L20" t="n">
+        <v>34.27360423430657</v>
+      </c>
+      <c r="M20" t="n">
+        <v>72.91908193315746</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9108803920889978</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>img_36</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02032160758972168</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.65424823760986</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.52632474899292</v>
+      </c>
+      <c r="F21" t="n">
+        <v>33.47377021684753</v>
+      </c>
+      <c r="G21" t="n">
+        <v>87.66466830263307</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8942282517632885</v>
+      </c>
+      <c r="I21" t="n">
+        <v>34.49677547813526</v>
+      </c>
+      <c r="J21" t="n">
+        <v>69.26663146232617</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9221190874346891</v>
+      </c>
+      <c r="L21" t="n">
+        <v>33.29756041436789</v>
+      </c>
+      <c r="M21" t="n">
+        <v>91.29470174675654</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8969807369811352</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>img_28</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01698708534240723</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.441252708435059</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.701752424240112</v>
+      </c>
+      <c r="F22" t="n">
+        <v>33.03606133868821</v>
+      </c>
+      <c r="G22" t="n">
+        <v>96.9606418476466</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8844472426918272</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34.17379252880457</v>
+      </c>
+      <c r="J22" t="n">
+        <v>74.61435046521427</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9147212222889959</v>
+      </c>
+      <c r="L22" t="n">
+        <v>33.05749342889624</v>
+      </c>
+      <c r="M22" t="n">
+        <v>96.4833274493503</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.895474124215666</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>img_21</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01341676712036133</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.084316968917847</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.801150560379028</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31.80055254029778</v>
+      </c>
+      <c r="G23" t="n">
+        <v>128.86837777639</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8722834047664616</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32.21744341659344</v>
+      </c>
+      <c r="J23" t="n">
+        <v>117.0731419610455</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8726531229707205</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31.54019740460595</v>
+      </c>
+      <c r="M23" t="n">
+        <v>136.8301727068979</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8498244368046244</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>img_19</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01673769950866699</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.474886655807495</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.452262401580811</v>
+      </c>
+      <c r="F24" t="n">
+        <v>32.3206380186549</v>
+      </c>
+      <c r="G24" t="n">
+        <v>114.3241059430915</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8524669849789029</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32.49250864011531</v>
+      </c>
+      <c r="J24" t="n">
+        <v>109.8881220679413</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8405179356054774</v>
+      </c>
+      <c r="L24" t="n">
+        <v>32.09845675040631</v>
+      </c>
+      <c r="M24" t="n">
+        <v>120.3250194488319</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8366888112442412</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>img_11</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0240929126739502</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.25154042243958</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.787253618240356</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34.5612187309659</v>
+      </c>
+      <c r="G25" t="n">
+        <v>68.24639924935491</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9114848970454666</v>
+      </c>
+      <c r="I25" t="n">
+        <v>35.54438260839562</v>
+      </c>
+      <c r="J25" t="n">
+        <v>54.42060364375635</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9265078606227884</v>
+      </c>
+      <c r="L25" t="n">
+        <v>34.21387050706779</v>
+      </c>
+      <c r="M25" t="n">
+        <v>73.92895457033389</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9196962018409337</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>img_64</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01092982292175293</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.970943689346313</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.698436975479126</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30.98582157468875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>155.4602844885979</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8708072504579457</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32.40579383478986</v>
+      </c>
+      <c r="J26" t="n">
+        <v>112.1042899074283</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9002841676524623</v>
+      </c>
+      <c r="L26" t="n">
+        <v>32.27316368980512</v>
+      </c>
+      <c r="M26" t="n">
+        <v>115.5806803642658</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.8809486441048827</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>img_55</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01677250862121582</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.496757507324219</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.394836187362671</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31.87374457654558</v>
+      </c>
+      <c r="G27" t="n">
+        <v>126.7147461625663</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8852912925677549</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33.21101507121762</v>
+      </c>
+      <c r="J27" t="n">
+        <v>93.13225282637336</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9010955231479588</v>
+      </c>
+      <c r="L27" t="n">
+        <v>33.08409829364918</v>
+      </c>
+      <c r="M27" t="n">
+        <v>95.89407763718251</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8862464951166938</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>img_25</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01542758941650391</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.95065879821777</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.859963893890381</v>
+      </c>
+      <c r="F28" t="n">
+        <v>32.15063009202397</v>
+      </c>
+      <c r="G28" t="n">
+        <v>118.888160202006</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8771484734940781</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33.02178850068137</v>
+      </c>
+      <c r="J28" t="n">
+        <v>97.27982160809894</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9023480140744807</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32.46077770455871</v>
+      </c>
+      <c r="M28" t="n">
+        <v>110.6939398190363</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8854761858972776</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>img_41</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01601886749267578</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.33778095245361</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.288602828979492</v>
+      </c>
+      <c r="F29" t="n">
+        <v>33.02924336228698</v>
+      </c>
+      <c r="G29" t="n">
+        <v>97.11297962243577</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8888497380307457</v>
+      </c>
+      <c r="I29" t="n">
+        <v>34.38045965334776</v>
+      </c>
+      <c r="J29" t="n">
+        <v>71.14684568027442</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9100066850988719</v>
+      </c>
+      <c r="L29" t="n">
+        <v>34.16387238308196</v>
+      </c>
+      <c r="M29" t="n">
+        <v>74.78497921352144</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8979040153153788</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>img_34</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0182185173034668</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.43097186088562</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.955066442489624</v>
+      </c>
+      <c r="F30" t="n">
+        <v>33.81096495627662</v>
+      </c>
+      <c r="G30" t="n">
+        <v>81.11573728321301</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9075277487256219</v>
+      </c>
+      <c r="I30" t="n">
+        <v>35.3181897763109</v>
+      </c>
+      <c r="J30" t="n">
+        <v>57.33009190108704</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9379995356462519</v>
+      </c>
+      <c r="L30" t="n">
+        <v>34.98591586615744</v>
+      </c>
+      <c r="M30" t="n">
+        <v>61.88851028960252</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9237073219573082</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>img_44</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02489876747131348</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13.96755075454712</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.628710508346558</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35.09437718800552</v>
+      </c>
+      <c r="G31" t="n">
+        <v>60.36203833029826</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9525590116891136</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36.30455430731888</v>
+      </c>
+      <c r="J31" t="n">
+        <v>45.68211311681194</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9680111366230678</v>
+      </c>
+      <c r="L31" t="n">
+        <v>37.38911112608626</v>
+      </c>
+      <c r="M31" t="n">
+        <v>35.58692827213098</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9658598755557298</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>img_32</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0162966251373291</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.35338282585144</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.917448282241821</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31.737531403932</v>
+      </c>
+      <c r="G32" t="n">
+        <v>130.7520405170939</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8728515444550505</v>
+      </c>
+      <c r="I32" t="n">
+        <v>32.79771985196064</v>
+      </c>
+      <c r="J32" t="n">
+        <v>102.4305796534787</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9090633180747227</v>
+      </c>
+      <c r="L32" t="n">
+        <v>32.40930625917517</v>
+      </c>
+      <c r="M32" t="n">
+        <v>112.0136604677305</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8786571665300528</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>img_35</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01751279830932617</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.27677893638611</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.400840759277344</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32.87302182432734</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100.669852700491</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8832306142300265</v>
+      </c>
+      <c r="I33" t="n">
+        <v>33.93932730850169</v>
+      </c>
+      <c r="J33" t="n">
+        <v>78.75332242225859</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.911570854509688</v>
+      </c>
+      <c r="L33" t="n">
+        <v>32.67202352879909</v>
+      </c>
+      <c r="M33" t="n">
+        <v>105.4385106382979</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8873198630816962</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>img_7</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01295280456542969</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.681972026824951</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.146532773971558</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33.77415175576325</v>
+      </c>
+      <c r="G34" t="n">
+        <v>81.8062415161324</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.886618693685847</v>
+      </c>
+      <c r="I34" t="n">
+        <v>34.59973022202107</v>
+      </c>
+      <c r="J34" t="n">
+        <v>67.64389292053879</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9195407851161316</v>
+      </c>
+      <c r="L34" t="n">
+        <v>33.25850235016257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>92.11945938185235</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8861892327988216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>img_23</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01146578788757324</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.524439096450806</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.34612512588501</v>
+      </c>
+      <c r="F35" t="n">
+        <v>30.57176866347833</v>
+      </c>
+      <c r="G35" t="n">
+        <v>171.0112766903915</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8402053085551696</v>
+      </c>
+      <c r="I35" t="n">
+        <v>31.82396103971226</v>
+      </c>
+      <c r="J35" t="n">
+        <v>128.1756450177936</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8773241842333674</v>
+      </c>
+      <c r="L35" t="n">
+        <v>30.86566089222763</v>
+      </c>
+      <c r="M35" t="n">
+        <v>159.8216192170819</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8407166437696837</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>img_62</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0161750316619873</v>
+      </c>
+      <c r="D36" t="n">
+        <v>13.4335196018219</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.974059581756592</v>
+      </c>
+      <c r="F36" t="n">
+        <v>33.51847345959102</v>
+      </c>
+      <c r="G36" t="n">
+        <v>86.76693762684911</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9228243629576977</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34.94786446521949</v>
+      </c>
+      <c r="J36" t="n">
+        <v>62.43313874416756</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9426533980776043</v>
+      </c>
+      <c r="L36" t="n">
+        <v>35.81669018531973</v>
+      </c>
+      <c r="M36" t="n">
+        <v>51.11314418429477</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.9335852375002357</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>img_6</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.009697437286376953</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.471724271774292</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.669826030731201</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30.73526691660102</v>
+      </c>
+      <c r="G37" t="n">
+        <v>164.692917832482</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8645781064538837</v>
+      </c>
+      <c r="I37" t="n">
+        <v>31.7710239001035</v>
+      </c>
+      <c r="J37" t="n">
+        <v>129.7475678311985</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8792081479834919</v>
+      </c>
+      <c r="L37" t="n">
+        <v>30.71851847525249</v>
+      </c>
+      <c r="M37" t="n">
+        <v>165.3292775795535</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8567141124702573</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>img_26</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02109479904174805</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10.68690419197083</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.539424896240234</v>
+      </c>
+      <c r="F38" t="n">
+        <v>32.5579272634375</v>
+      </c>
+      <c r="G38" t="n">
+        <v>108.24526032824</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8786744054470906</v>
+      </c>
+      <c r="I38" t="n">
+        <v>33.50035786825912</v>
+      </c>
+      <c r="J38" t="n">
+        <v>87.12962176947745</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9054283966119144</v>
+      </c>
+      <c r="L38" t="n">
+        <v>33.23101980158874</v>
+      </c>
+      <c r="M38" t="n">
+        <v>92.70424801924165</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8939805803683504</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>img_54</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01828646659851074</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.42900228500366</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.336627244949341</v>
+      </c>
+      <c r="F39" t="n">
+        <v>32.68841730944884</v>
+      </c>
+      <c r="G39" t="n">
+        <v>105.0412508195527</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8758780067830338</v>
+      </c>
+      <c r="I39" t="n">
+        <v>33.64613806391647</v>
+      </c>
+      <c r="J39" t="n">
+        <v>84.25347247517058</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8931781176496271</v>
+      </c>
+      <c r="L39" t="n">
+        <v>32.4832434890973</v>
+      </c>
+      <c r="M39" t="n">
+        <v>110.1228054199752</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.877911039972343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>img_10</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01614689826965332</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10.38168907165527</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.728808879852295</v>
+      </c>
+      <c r="F40" t="n">
+        <v>32.27452420069348</v>
+      </c>
+      <c r="G40" t="n">
+        <v>115.5444781667608</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8560354419846337</v>
+      </c>
+      <c r="I40" t="n">
+        <v>32.67226358010501</v>
+      </c>
+      <c r="J40" t="n">
+        <v>105.4326828063241</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8587339673845596</v>
+      </c>
+      <c r="L40" t="n">
+        <v>25.22328193252203</v>
+      </c>
+      <c r="M40" t="n">
+        <v>585.9673560135517</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8115651341342168</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>img_39</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02043557167053223</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11.63051319122314</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.225781440734863</v>
+      </c>
+      <c r="F41" t="n">
+        <v>33.4969692110413</v>
+      </c>
+      <c r="G41" t="n">
+        <v>87.19763268185402</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9045158588576628</v>
+      </c>
+      <c r="I41" t="n">
+        <v>34.8782546241097</v>
+      </c>
+      <c r="J41" t="n">
+        <v>63.44189592929168</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9249067610947054</v>
+      </c>
+      <c r="L41" t="n">
+        <v>33.4155623159516</v>
+      </c>
+      <c r="M41" t="n">
+        <v>88.84753516743433</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9238561151647122</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>img_43</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02084541320800781</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10.7041220664978</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.930212020874023</v>
+      </c>
+      <c r="F42" t="n">
+        <v>32.91327055686241</v>
+      </c>
+      <c r="G42" t="n">
+        <v>99.74119332401318</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8816462456921598</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34.0793667606596</v>
+      </c>
+      <c r="J42" t="n">
+        <v>76.25440549543485</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9010920954467748</v>
+      </c>
+      <c r="L42" t="n">
+        <v>33.09867263435652</v>
+      </c>
+      <c r="M42" t="n">
+        <v>95.57280933395468</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8741234000658231</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>img_56</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01701951026916504</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.11773896217346</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.099408864974976</v>
+      </c>
+      <c r="F43" t="n">
+        <v>32.72754427676113</v>
+      </c>
+      <c r="G43" t="n">
+        <v>104.0991510853213</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8914362456438836</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33.56683978136928</v>
+      </c>
+      <c r="J43" t="n">
+        <v>85.80599613152805</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9105829515309535</v>
+      </c>
+      <c r="L43" t="n">
+        <v>32.81472827863899</v>
+      </c>
+      <c r="M43" t="n">
+        <v>102.0302116913819</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8921755679003395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>img_4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01209664344787598</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8.676576852798462</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.56350040435791</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31.14630798838728</v>
+      </c>
+      <c r="G44" t="n">
+        <v>149.8203532578533</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8428948438738765</v>
+      </c>
+      <c r="I44" t="n">
+        <v>32.16351835329224</v>
+      </c>
+      <c r="J44" t="n">
+        <v>118.5358669108669</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.873550153234805</v>
+      </c>
+      <c r="L44" t="n">
+        <v>31.97223031478059</v>
+      </c>
+      <c r="M44" t="n">
+        <v>123.8735500610501</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8648716219210324</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>img_13</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01773262023925781</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.795578956604</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.549423933029175</v>
+      </c>
+      <c r="F45" t="n">
+        <v>33.47819314393961</v>
+      </c>
+      <c r="G45" t="n">
+        <v>87.57543459554768</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8787642579276289</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33.99928044844091</v>
+      </c>
+      <c r="J45" t="n">
+        <v>77.67362441864762</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8876158697622647</v>
+      </c>
+      <c r="L45" t="n">
+        <v>33.06711830465332</v>
+      </c>
+      <c r="M45" t="n">
+        <v>96.2697369462965</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.8691531190758072</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>img_16</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01544046401977539</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.34271883964539</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.23111367225647</v>
+      </c>
+      <c r="F46" t="n">
+        <v>33.54693469355099</v>
+      </c>
+      <c r="G46" t="n">
+        <v>86.20017474600562</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.91408082382009</v>
+      </c>
+      <c r="I46" t="n">
+        <v>34.73813231489083</v>
+      </c>
+      <c r="J46" t="n">
+        <v>65.52218688232881</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9307144147351957</v>
+      </c>
+      <c r="L46" t="n">
+        <v>35.23290661489686</v>
+      </c>
+      <c r="M46" t="n">
+        <v>58.46701935525117</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9220734226536117</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>img_29</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0144045352935791</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.935306310653687</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.501641988754272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>32.55683293407528</v>
+      </c>
+      <c r="G47" t="n">
+        <v>108.2725392592593</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8708742201673605</v>
+      </c>
+      <c r="I47" t="n">
+        <v>33.59255963599153</v>
+      </c>
+      <c r="J47" t="n">
+        <v>85.2993362962963</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9021160196538741</v>
+      </c>
+      <c r="L47" t="n">
+        <v>32.30970222094803</v>
+      </c>
+      <c r="M47" t="n">
+        <v>114.6123437037037</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8825723034899041</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>img_50</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01511025428771973</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.54448199272156</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.909528493881226</v>
+      </c>
+      <c r="F48" t="n">
+        <v>32.39933623480916</v>
+      </c>
+      <c r="G48" t="n">
+        <v>112.271103708997</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9059418113539172</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33.94492183874826</v>
+      </c>
+      <c r="J48" t="n">
+        <v>78.65193863673036</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9323678490574364</v>
+      </c>
+      <c r="L48" t="n">
+        <v>34.77772376125843</v>
+      </c>
+      <c r="M48" t="n">
+        <v>64.92758350429912</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9205517467843783</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>img_58</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01438474655151367</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.968617916107178</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.316632032394409</v>
+      </c>
+      <c r="F49" t="n">
+        <v>31.7855227363186</v>
+      </c>
+      <c r="G49" t="n">
+        <v>129.3151303609542</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8888210743088979</v>
+      </c>
+      <c r="I49" t="n">
+        <v>33.08162419605711</v>
+      </c>
+      <c r="J49" t="n">
+        <v>95.94872233293634</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9125801585559762</v>
+      </c>
+      <c r="L49" t="n">
+        <v>33.32906490439647</v>
+      </c>
+      <c r="M49" t="n">
+        <v>90.63483013572633</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8890102742114707</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>img_31</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01433444023132324</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.581948757171631</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.186904907226562</v>
+      </c>
+      <c r="F50" t="n">
+        <v>32.11390986968603</v>
+      </c>
+      <c r="G50" t="n">
+        <v>119.8976383028598</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.865592496872285</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33.19878474214235</v>
+      </c>
+      <c r="J50" t="n">
+        <v>93.39489568682606</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8969613296411513</v>
+      </c>
+      <c r="L50" t="n">
+        <v>31.81377165124493</v>
+      </c>
+      <c r="M50" t="n">
+        <v>128.4767229254571</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.869974950260811</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>img_18</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01361083984375</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.461013555526733</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.565027236938477</v>
+      </c>
+      <c r="F51" t="n">
+        <v>33.28221488732027</v>
+      </c>
+      <c r="G51" t="n">
+        <v>91.61785651924468</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9164252836507204</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34.21229569078862</v>
+      </c>
+      <c r="J51" t="n">
+        <v>73.95576716805108</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9306703337823977</v>
+      </c>
+      <c r="L51" t="n">
+        <v>34.47483107677026</v>
+      </c>
+      <c r="M51" t="n">
+        <v>69.61751353239043</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.9169977177089966</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>img_52</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01334667205810547</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.981122493743896</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.205727577209473</v>
+      </c>
+      <c r="F52" t="n">
+        <v>31.82690993440641</v>
+      </c>
+      <c r="G52" t="n">
+        <v>128.0886422582026</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8840972560120481</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33.02674641648127</v>
+      </c>
+      <c r="J52" t="n">
+        <v>97.16883010601063</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9028702311725079</v>
+      </c>
+      <c r="L52" t="n">
+        <v>33.49363552086655</v>
+      </c>
+      <c r="M52" t="n">
+        <v>87.26459219902803</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8976278735150437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>img_40</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01646757125854492</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.73939037322998</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.726965188980103</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.42722155425614</v>
+      </c>
+      <c r="G53" t="n">
+        <v>88.60933151289187</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8972191380420741</v>
+      </c>
+      <c r="I53" t="n">
+        <v>34.61150167193463</v>
+      </c>
+      <c r="J53" t="n">
+        <v>67.46079399254319</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9155340101506706</v>
+      </c>
+      <c r="L53" t="n">
+        <v>34.61227590495366</v>
+      </c>
+      <c r="M53" t="n">
+        <v>67.44876857637978</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.9101537094742004</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>img_46</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01632094383239746</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.07003855705261</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.723176717758179</v>
+      </c>
+      <c r="F54" t="n">
+        <v>35.69671664168425</v>
+      </c>
+      <c r="G54" t="n">
+        <v>52.54482517624179</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9583996775874403</v>
+      </c>
+      <c r="I54" t="n">
+        <v>36.65448831519816</v>
+      </c>
+      <c r="J54" t="n">
+        <v>42.1456527023742</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.971221728041599</v>
+      </c>
+      <c r="L54" t="n">
+        <v>37.5980514044501</v>
+      </c>
+      <c r="M54" t="n">
+        <v>33.91536342273722</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9725382279150177</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>img_15</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02349328994750977</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11.54432439804077</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.791751146316528</v>
+      </c>
+      <c r="F55" t="n">
+        <v>33.48315265029389</v>
+      </c>
+      <c r="G55" t="n">
+        <v>87.47548328585088</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9295999649347396</v>
+      </c>
+      <c r="I55" t="n">
+        <v>35.27871525824842</v>
+      </c>
+      <c r="J55" t="n">
+        <v>57.85356019755326</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9488574447544217</v>
+      </c>
+      <c r="L55" t="n">
+        <v>35.77094832236416</v>
+      </c>
+      <c r="M55" t="n">
+        <v>51.6543360179809</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.944033938099723</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>img_22</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01359033584594727</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8.552244901657104</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.960581064224243</v>
+      </c>
+      <c r="F56" t="n">
+        <v>31.69384944938184</v>
+      </c>
+      <c r="G56" t="n">
+        <v>132.0737991478832</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8658272611069018</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32.46152084254846</v>
+      </c>
+      <c r="J56" t="n">
+        <v>110.6750001737595</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.874013046873353</v>
+      </c>
+      <c r="L56" t="n">
+        <v>32.27284757911593</v>
+      </c>
+      <c r="M56" t="n">
+        <v>115.5890934617764</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.8578338699073856</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>img_30</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01557230949401855</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.11966824531555</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.109506130218506</v>
+      </c>
+      <c r="F57" t="n">
+        <v>32.88574067011502</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100.3754600006631</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8851202635340463</v>
+      </c>
+      <c r="I57" t="n">
+        <v>33.99190724809544</v>
+      </c>
+      <c r="J57" t="n">
+        <v>77.80560620627922</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.912937409315575</v>
+      </c>
+      <c r="L57" t="n">
+        <v>33.43634733461577</v>
+      </c>
+      <c r="M57" t="n">
+        <v>88.42333322282266</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.9018824697229054</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>img_61</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0126960277557373</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.225186824798584</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.421860218048096</v>
+      </c>
+      <c r="F58" t="n">
+        <v>34.65952620470689</v>
+      </c>
+      <c r="G58" t="n">
+        <v>66.71891807825399</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9164215521027961</v>
+      </c>
+      <c r="I58" t="n">
+        <v>35.37539639411053</v>
+      </c>
+      <c r="J58" t="n">
+        <v>56.57987402636115</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9334472390885692</v>
+      </c>
+      <c r="L58" t="n">
+        <v>34.54015725310547</v>
+      </c>
+      <c r="M58" t="n">
+        <v>68.57816975336642</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.9138734947528513</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>img_1</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01267051696777344</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8.064245700836182</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.003545761108398</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30.63045518720308</v>
+      </c>
+      <c r="G59" t="n">
+        <v>168.7159325889165</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8246219211827578</v>
+      </c>
+      <c r="I59" t="n">
+        <v>31.55917389767147</v>
+      </c>
+      <c r="J59" t="n">
+        <v>136.2335977194848</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8535977643438081</v>
+      </c>
+      <c r="L59" t="n">
+        <v>30.35183274511922</v>
+      </c>
+      <c r="M59" t="n">
+        <v>179.8946886446886</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8342831830800955</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>img_12</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.02230381965637207</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13.02171587944031</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.437188148498535</v>
+      </c>
+      <c r="F60" t="n">
+        <v>34.25587081227719</v>
+      </c>
+      <c r="G60" t="n">
+        <v>73.21743905117505</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9069291664856066</v>
+      </c>
+      <c r="I60" t="n">
+        <v>35.53013375356435</v>
+      </c>
+      <c r="J60" t="n">
+        <v>54.59944651877883</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.924547518469191</v>
+      </c>
+      <c r="L60" t="n">
+        <v>35.72397409413567</v>
+      </c>
+      <c r="M60" t="n">
+        <v>52.21607291895454</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.9170439813519655</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>img_47</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01544356346130371</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.04746198654175</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.227051734924316</v>
+      </c>
+      <c r="F61" t="n">
+        <v>33.1060576613636</v>
+      </c>
+      <c r="G61" t="n">
+        <v>95.41042918715473</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9240325753538609</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34.54487605767836</v>
+      </c>
+      <c r="J61" t="n">
+        <v>68.50369695865963</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.943945808807188</v>
+      </c>
+      <c r="L61" t="n">
+        <v>35.96013221357555</v>
+      </c>
+      <c r="M61" t="n">
+        <v>49.45251623869362</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9288630692530857</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>img_20</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01981520652770996</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8.376618623733521</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.353556632995605</v>
+      </c>
+      <c r="F62" t="n">
+        <v>32.06720589936501</v>
+      </c>
+      <c r="G62" t="n">
+        <v>121.1939737906845</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8818801274063995</v>
+      </c>
+      <c r="I62" t="n">
+        <v>32.71948219665332</v>
+      </c>
+      <c r="J62" t="n">
+        <v>104.2925763287626</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8910555310931191</v>
+      </c>
+      <c r="L62" t="n">
+        <v>31.39776606751475</v>
+      </c>
+      <c r="M62" t="n">
+        <v>141.3920557327699</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8661369651198351</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>img_0</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.013275146484375</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9.572403430938721</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.287830352783203</v>
+      </c>
+      <c r="F63" t="n">
+        <v>32.89155884089026</v>
+      </c>
+      <c r="G63" t="n">
+        <v>100.2410787044933</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.891660663679274</v>
+      </c>
+      <c r="I63" t="n">
+        <v>33.86178445126481</v>
+      </c>
+      <c r="J63" t="n">
+        <v>80.17208356232746</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9130585695603237</v>
+      </c>
+      <c r="L63" t="n">
+        <v>33.48994783833955</v>
+      </c>
+      <c r="M63" t="n">
+        <v>87.33872180213643</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8836175764842974</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>img_9</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01438283920288086</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9.799018621444702</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.290048599243164</v>
+      </c>
+      <c r="F64" t="n">
+        <v>32.37443888500086</v>
+      </c>
+      <c r="G64" t="n">
+        <v>112.9165829270411</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9065251117250535</v>
+      </c>
+      <c r="I64" t="n">
+        <v>33.37259481142493</v>
+      </c>
+      <c r="J64" t="n">
+        <v>89.73092287270336</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9345012241767559</v>
+      </c>
+      <c r="L64" t="n">
+        <v>34.72658626070416</v>
+      </c>
+      <c r="M64" t="n">
+        <v>65.69661443795204</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.9150178443856846</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>img_51</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01332378387451172</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.756505966186523</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.215424060821533</v>
+      </c>
+      <c r="F65" t="n">
+        <v>32.7076821628424</v>
+      </c>
+      <c r="G65" t="n">
+        <v>104.5763306418777</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8749806083196923</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33.78511943580183</v>
+      </c>
+      <c r="J65" t="n">
+        <v>81.59990854479739</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8974251796555702</v>
+      </c>
+      <c r="L65" t="n">
+        <v>33.16168450917206</v>
+      </c>
+      <c r="M65" t="n">
+        <v>94.19615261743537</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8791999593051804</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
